--- a/user_kusd.xlsx
+++ b/user_kusd.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/herryho/pycharmProjects/rabbit_model/data_management/data_store/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/herryho/bifrost-finance/kusd-compensate-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6492C-EBAD-AE4D-8179-4645C5A5841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7220F-300D-4C44-9A4A-7A2CCC1C9469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{29303E2A-A159-254F-B123-DD47EF22A351}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{29303E2A-A159-254F-B123-DD47EF22A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,10 +58,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B875EB-C9A5-2742-A275-CB1F4E0F2CA5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +423,7 @@
     <col min="1" max="1" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -430,29 +439,32 @@
         <v>400000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30000000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300000000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2000000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>200000000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>100000000000</v>
-      </c>
+      <c r="B5" s="2">
+        <v>100000000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
